--- a/sfaic_model.xlsx
+++ b/sfaic_model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">LogLikelihood</t>
   </si>
@@ -65,55 +65,76 @@
     <t xml:space="preserve">`De forma geral, como você avalia o nível de suporte recebido do seu orientador durante a realização de sua dissertação/tese de pós-graduação?`</t>
   </si>
   <si>
-    <t xml:space="preserve">`Você recebeu bolsa de estudos ou auxílio financeiro durante o curso de pós-graduação? Se sim, por quanto tempo? Sim...76`</t>
+    <t xml:space="preserve">`Em que ano você iniciou seu último curso de pós-graduação stricto sensu na UFMT?`</t>
   </si>
   <si>
     <t xml:space="preserve">`Especifique a natureza da jornada de trabalho durante a pós-graduação_Jornada de tempo integral (acima de 30 horas semanais)`</t>
   </si>
   <si>
+    <t xml:space="preserve">`Como você classificaria seu nível de desempenho acadêmico ao longo do curso de pós-graduação?`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você fez uso de algum período de prorrogação de prazo para o término do seu curso de pós-graduação? Se sim, qual foi o período de prorrogação utilizado?_Não prorroguei o período de curso`</t>
+  </si>
+  <si>
     <t xml:space="preserve">`Qual a probabilidade de você recomendar esta instituição para futuros estudantes de pós-graduação?`</t>
   </si>
   <si>
-    <t xml:space="preserve">`Como você classificaria seu nível de desempenho acadêmico ao longo do curso de pós-graduação?`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Durante o seu curso de pós-graduação, com que frequência você socializou com colegas em momentos de lanches e refeições?`</t>
+    <t xml:space="preserve">`Entre os fatores abaixo, quais você acredita que poderiam ser aprimorados para melhorar significativamente a sua experiência com a instituição? Escolha todos que se aplicam_Integração da instituição com a comunidade local`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você trancou sua matrícula no programa de pós-graduação? Se sim, por quanto tempo?_Não tranquei a matrícula`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você trabalhou enquanto estava cursando pós-graduação?_Sim, durante todo o período do curso`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Qual era o rendimento per capita familiar durante o período em que realizou o curso de pós-graduação?_Sem renda`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`area_conhecimento_curso_Linguística, letras e artes`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Entre os fatores abaixo, quais você acredita que foram os aspectos mais positivos na sua experiência com a instituição? Escolha todos que se aplicam_Grade curricular`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você cursou o ensino superior (graduação) predominantemente em_Instituição particular`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Estado civil ao iniciar o curso de pós-graduação_União Estável`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Qual é o nível acadêmico do seu curso de pós-graduação stricto sensu mais recente realizado na UFMT?_Doutorado (Acadêmico)`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Você precisou mudar de cidade para realizar o curso de pós-graduação?_Sim, durante parte do período cursado`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Caso tenha mantido vínculo empregatício (trabalhando ou não), qual categoria melhor descreve seu ambiente de trabalho? Marque todas que se aplicam_Organizações Não Governamentais (ONGs)`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`area_conhecimento_curso_Ciências humanas`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`area_conhecimento_curso_Ciências biológicas`</t>
   </si>
   <si>
     <t xml:space="preserve">`Durante o seu curso de pós-graduação, como você classificaria sua intenção de buscar futuras oportunidades educacionais, como doutorado, pós-doutorado ou formações adicionais em sua área?`</t>
   </si>
   <si>
-    <t xml:space="preserve">`Você trancou sua matrícula no programa de pós-graduação? Se sim, por quanto tempo?_Sim`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Você fez uso de algum período de prorrogação de prazo para o término do seu curso de pós-graduação? Se sim, qual foi o período de prorrogação utilizado?_Não prorroguei o período de curso`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Caso tenha mantido vínculo empregatício (trabalhando ou não), qual categoria melhor descreve seu ambiente de trabalho? Marque todas que se aplicam_Desempregado`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`area_conhecimento_curso_Linguística, letras e artes`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Qual é o nível acadêmico do seu curso de pós-graduação stricto sensu mais recente realizado na UFMT?_Doutorado (Acadêmico)`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Apresenta alguma deficiência ou transtorno? Marque todos que se aplicam_Transtorno do Espectro Autista`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`area_conhecimento_curso_Ciências humanas`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Apresenta alguma deficiência ou transtorno? Marque todos que se aplicam_Deficiência Física`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Em qual campus da UFMT você cursou seu último programa de pós-graduação stricto sensu?_Rondonópolis`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Estado civil ao iniciar o curso de pós-graduação_União Estável`</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`No decorrer do seu programa de pós-graduação, com que frequência você testemunhou ou sofreu alguma forma de assédio, entendido como condutas indesejadas de natureza física, verbal ou psicológica, que visaram ou resultaram em ofensa ou humilhação?`</t>
+    <t xml:space="preserve">`Identidade de gênero_Feminina`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Estado civil ao iniciar o curso de pós-graduação_Separado`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Entre os fatores abaixo, quais você acredita que poderiam ser aprimorados para melhorar significativamente a sua experiência com a instituição? Escolha todos que se aplicam_Cultura institucional`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Em qual campus da UFMT você cursou seu último programa de pós-graduação stricto sensu?_Sinop`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Como você avalia seu nível de interação com colegas dentro do ambiente acadêmico do seu programa de pós-graduação?`</t>
   </si>
   <si>
     <t xml:space="preserve">OR</t>
@@ -485,31 +506,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-137.118786715588</v>
+        <v>-111.970166618582</v>
       </c>
       <c r="B2" t="n">
-        <v>312.237573431176</v>
+        <v>275.940333237164</v>
       </c>
       <c r="C2" t="n">
-        <v>395.905483191938</v>
+        <v>390.433262383469</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.910596026490066</v>
+        <v>0.932119205298013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.975190839694656</v>
+        <v>0.977099236641221</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4875</v>
+        <v>0.6375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.925724637681159</v>
+        <v>0.946395563770795</v>
       </c>
       <c r="I2" t="n">
-        <v>0.75</v>
+        <v>0.809523809523809</v>
       </c>
     </row>
   </sheetData>
@@ -548,16 +569,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41702415955054</v>
+        <v>-546.259623866967</v>
       </c>
       <c r="C2" t="n">
-        <v>1.33221443248914</v>
+        <v>112.259892608099</v>
       </c>
       <c r="D2" t="n">
-        <v>4.81681026947054</v>
+        <v>-4.86602660287557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000145871268959165</v>
+        <v>0.00000113864197786506</v>
       </c>
     </row>
     <row r="3">
@@ -565,16 +586,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.765387684401619</v>
+        <v>-1.01777553914685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.148712485865759</v>
+        <v>0.175528284862387</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.14676141647261</v>
+        <v>-5.79835631587683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000000265022045756726</v>
+        <v>0.00000000669680453506654</v>
       </c>
     </row>
     <row r="4">
@@ -582,16 +603,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.01471569350457</v>
+        <v>0.27433084698313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4063525040564</v>
+        <v>0.0557572365208894</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.49713163663371</v>
+        <v>4.92009403802414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0125202469818759</v>
+        <v>0.000000865026414060099</v>
       </c>
     </row>
     <row r="5">
@@ -599,16 +620,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>1.40684529059286</v>
+        <v>1.46994247940078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.367599589637819</v>
+        <v>0.435458612311058</v>
       </c>
       <c r="D5" t="n">
-        <v>3.82711333268616</v>
+        <v>3.37561926172392</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000129654828081369</v>
+        <v>0.000736497636035759</v>
       </c>
     </row>
     <row r="6">
@@ -616,16 +637,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.585157261464341</v>
+        <v>-0.682480484288903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15316098993473</v>
+        <v>0.224503620183216</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.82053721194743</v>
+        <v>-3.03995313630994</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000133161311402247</v>
+        <v>0.00236614963174402</v>
       </c>
     </row>
     <row r="7">
@@ -633,16 +654,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.620415292606652</v>
+        <v>1.63409007093733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191190895478773</v>
+        <v>0.428714035473405</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.24500437666256</v>
+        <v>3.81160852159389</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00117448818502471</v>
+        <v>0.000138065416558479</v>
       </c>
     </row>
     <row r="8">
@@ -650,16 +671,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.319364274969383</v>
+        <v>-0.553455182655684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.13134113297993</v>
+        <v>0.190774967613222</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.43156327133393</v>
+        <v>-2.90108911866132</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0150338223054232</v>
+        <v>0.00371868102974156</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +688,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.289679217017777</v>
+        <v>-1.80328566155152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.13395108881972</v>
+        <v>0.429953439678031</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.16257456038783</v>
+        <v>-4.19414172590852</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0305739166602537</v>
+        <v>0.0000273906695488434</v>
       </c>
     </row>
     <row r="10">
@@ -684,16 +705,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>1.90061844298786</v>
+        <v>-1.40365941766443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.630982235460977</v>
+        <v>0.675965391259295</v>
       </c>
       <c r="D10" t="n">
-        <v>3.01215840347601</v>
+        <v>-2.07652556745467</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00259397200183865</v>
+        <v>0.0378453689663626</v>
       </c>
     </row>
     <row r="11">
@@ -701,16 +722,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.964570778720574</v>
+        <v>1.24916785660559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.380441201855529</v>
+        <v>0.442698478293109</v>
       </c>
       <c r="D11" t="n">
-        <v>2.53540040883076</v>
+        <v>2.82171256025534</v>
       </c>
       <c r="E11" t="n">
-        <v>0.011231886061712</v>
+        <v>0.00477679700957515</v>
       </c>
     </row>
     <row r="12">
@@ -718,16 +739,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>2.57626024783277</v>
+        <v>3.29128702669609</v>
       </c>
       <c r="C12" t="n">
-        <v>1.06292829701185</v>
+        <v>1.07584619543021</v>
       </c>
       <c r="D12" t="n">
-        <v>2.42373851093744</v>
+        <v>3.0592542323208</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0153616621142054</v>
+        <v>0.00221888763037329</v>
       </c>
     </row>
     <row r="13">
@@ -735,16 +756,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>1.5972154920998</v>
+        <v>1.41527633532184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.660064693328585</v>
+        <v>0.790770590322188</v>
       </c>
       <c r="D13" t="n">
-        <v>2.41978628495539</v>
+        <v>1.78974326137395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0155296311239367</v>
+        <v>0.0734951942398094</v>
       </c>
     </row>
     <row r="14">
@@ -752,16 +773,16 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.938033067873375</v>
+        <v>0.907960673395496</v>
       </c>
       <c r="C14" t="n">
-        <v>0.526403962429129</v>
+        <v>0.394607578643524</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.78196429894782</v>
+        <v>2.30092051581128</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0747550538197107</v>
+        <v>0.0213961242461728</v>
       </c>
     </row>
     <row r="15">
@@ -769,16 +790,16 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>2.29579777671642</v>
+        <v>-1.24740945447433</v>
       </c>
       <c r="C15" t="n">
-        <v>0.914995574251102</v>
+        <v>0.526441003626986</v>
       </c>
       <c r="D15" t="n">
-        <v>2.50908074456585</v>
+        <v>-2.36951423973462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0121045811799723</v>
+        <v>0.0178114692018028</v>
       </c>
     </row>
     <row r="16">
@@ -786,16 +807,16 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.886850454656636</v>
+        <v>1.40981921738564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.440514358836328</v>
+        <v>0.586228071690714</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.01321577121654</v>
+        <v>2.40489885330746</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0440919347853747</v>
+        <v>0.0161769424997543</v>
       </c>
     </row>
     <row r="17">
@@ -803,16 +824,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>-16.4517406725943</v>
+        <v>-1.71889218829198</v>
       </c>
       <c r="C17" t="n">
-        <v>1115.56126794338</v>
+        <v>0.635525715394006</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0147475007831029</v>
+        <v>-2.70467763405343</v>
       </c>
       <c r="E17" t="n">
-        <v>0.98823362332543</v>
+        <v>0.00683707037002771</v>
       </c>
     </row>
     <row r="18">
@@ -820,16 +841,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>1.51463062435004</v>
+        <v>1.18850266251923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.758437308831653</v>
+        <v>0.592163407200301</v>
       </c>
       <c r="D18" t="n">
-        <v>1.9970412936084</v>
+        <v>2.00705185100574</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0458206973985959</v>
+        <v>0.0447441422728297</v>
       </c>
     </row>
     <row r="19">
@@ -837,16 +858,16 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.905896979249713</v>
+        <v>-16.9329571572047</v>
       </c>
       <c r="C19" t="n">
-        <v>0.538822131142268</v>
+        <v>984.428348619113</v>
       </c>
       <c r="D19" t="n">
-        <v>1.68125421524404</v>
+        <v>-0.0172008020502021</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0927135468916499</v>
+        <v>0.986276422341032</v>
       </c>
     </row>
     <row r="20">
@@ -854,16 +875,135 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.201088128031413</v>
+        <v>-1.25864699749004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.12855585429622</v>
+        <v>0.502400668904664</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.56420825120934</v>
+        <v>-2.50526536963844</v>
       </c>
       <c r="E20" t="n">
-        <v>0.117768670107131</v>
+        <v>0.0122359551120599</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.55845582556686</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.831401744723565</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.87449188729455</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0608626591978916</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.324569906821015</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.151552236378676</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.14163719768561</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0322226880067024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.646580658309083</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.393328722986599</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.64386839943828</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.100203388865001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.43291577365831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.37007593780198</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.77575250139891</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0757737197274283</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.542228921269498</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.393321380544934</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.3785899981289</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.168021202075079</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.11617082946456</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.682392093323051</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.63567374297837</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.101907887616965</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.31395685916211</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.207600390618112</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.5123134317201</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.130454145671548</v>
       </c>
     </row>
   </sheetData>
@@ -902,16 +1042,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41702415955054</v>
+        <v>-546.259623866967</v>
       </c>
       <c r="C2" t="n">
-        <v>1.33221443248914</v>
+        <v>112.259892608099</v>
       </c>
       <c r="D2" t="n">
-        <v>4.81681026947054</v>
+        <v>-4.86602660287557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000145871268959165</v>
+        <v>0.00000113864197786506</v>
       </c>
     </row>
     <row r="3">
@@ -919,16 +1059,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.765387684401619</v>
+        <v>-1.01777553914685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.148712485865759</v>
+        <v>0.175528284862387</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.14676141647261</v>
+        <v>-5.79835631587683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000000265022045756726</v>
+        <v>0.00000000669680453506654</v>
       </c>
     </row>
     <row r="4">
@@ -936,16 +1076,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.01471569350457</v>
+        <v>0.27433084698313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4063525040564</v>
+        <v>0.0557572365208894</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.49713163663371</v>
+        <v>4.92009403802414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0125202469818759</v>
+        <v>0.000000865026414060099</v>
       </c>
     </row>
     <row r="5">
@@ -953,16 +1093,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>1.40684529059286</v>
+        <v>1.46994247940078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.367599589637819</v>
+        <v>0.435458612311058</v>
       </c>
       <c r="D5" t="n">
-        <v>3.82711333268616</v>
+        <v>3.37561926172392</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000129654828081369</v>
+        <v>0.000736497636035759</v>
       </c>
     </row>
     <row r="6">
@@ -970,16 +1110,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.585157261464341</v>
+        <v>-0.682480484288903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15316098993473</v>
+        <v>0.224503620183216</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.82053721194743</v>
+        <v>-3.03995313630994</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000133161311402247</v>
+        <v>0.00236614963174402</v>
       </c>
     </row>
     <row r="7">
@@ -987,16 +1127,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.620415292606652</v>
+        <v>1.63409007093733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191190895478773</v>
+        <v>0.428714035473405</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.24500437666256</v>
+        <v>3.81160852159389</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00117448818502471</v>
+        <v>0.000138065416558479</v>
       </c>
     </row>
     <row r="8">
@@ -1004,16 +1144,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.319364274969383</v>
+        <v>-0.553455182655684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.13134113297993</v>
+        <v>0.190774967613222</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.43156327133393</v>
+        <v>-2.90108911866132</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0150338223054232</v>
+        <v>0.00371868102974156</v>
       </c>
     </row>
     <row r="9">
@@ -1021,16 +1161,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.289679217017777</v>
+        <v>-1.80328566155152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.13395108881972</v>
+        <v>0.429953439678031</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.16257456038783</v>
+        <v>-4.19414172590852</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0305739166602537</v>
+        <v>0.0000273906695488434</v>
       </c>
     </row>
     <row r="10">
@@ -1038,16 +1178,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>1.90061844298786</v>
+        <v>-1.40365941766443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.630982235460977</v>
+        <v>0.675965391259295</v>
       </c>
       <c r="D10" t="n">
-        <v>3.01215840347601</v>
+        <v>-2.07652556745467</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00259397200183865</v>
+        <v>0.0378453689663626</v>
       </c>
     </row>
     <row r="11">
@@ -1055,16 +1195,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.964570778720574</v>
+        <v>1.24916785660559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.380441201855529</v>
+        <v>0.442698478293109</v>
       </c>
       <c r="D11" t="n">
-        <v>2.53540040883076</v>
+        <v>2.82171256025534</v>
       </c>
       <c r="E11" t="n">
-        <v>0.011231886061712</v>
+        <v>0.00477679700957515</v>
       </c>
     </row>
     <row r="12">
@@ -1072,33 +1212,33 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>2.57626024783277</v>
+        <v>3.29128702669609</v>
       </c>
       <c r="C12" t="n">
-        <v>1.06292829701185</v>
+        <v>1.07584619543021</v>
       </c>
       <c r="D12" t="n">
-        <v>2.42373851093744</v>
+        <v>3.0592542323208</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0153616621142054</v>
+        <v>0.00221888763037329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>1.5972154920998</v>
+        <v>0.907960673395496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.660064693328585</v>
+        <v>0.394607578643524</v>
       </c>
       <c r="D13" t="n">
-        <v>2.41978628495539</v>
+        <v>2.30092051581128</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0155296311239367</v>
+        <v>0.0213961242461728</v>
       </c>
     </row>
     <row r="14">
@@ -1106,16 +1246,16 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>2.29579777671642</v>
+        <v>-1.24740945447433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.914995574251102</v>
+        <v>0.526441003626986</v>
       </c>
       <c r="D14" t="n">
-        <v>2.50908074456585</v>
+        <v>-2.36951423973462</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0121045811799723</v>
+        <v>0.0178114692018028</v>
       </c>
     </row>
     <row r="15">
@@ -1123,33 +1263,84 @@
         <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.886850454656636</v>
+        <v>1.40981921738564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.440514358836328</v>
+        <v>0.586228071690714</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.01321577121654</v>
+        <v>2.40489885330746</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0440919347853747</v>
+        <v>0.0161769424997543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.71889218829198</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.635525715394006</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2.70467763405343</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00683707037002771</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="n">
-        <v>1.51463062435004</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.758437308831653</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.9970412936084</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0458206973985959</v>
+      <c r="B17" t="n">
+        <v>1.18850266251923</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.592163407200301</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.00705185100574</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0447441422728297</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.25864699749004</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.502400668904664</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.50526536963844</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0122359551120599</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.324569906821015</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.151552236378676</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2.14163719768561</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0322226880067024</v>
       </c>
     </row>
   </sheetData>
@@ -1174,13 +1365,13 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1188,16 +1379,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41702415955054</v>
+        <v>-546.259623866967</v>
       </c>
       <c r="C2" t="n">
-        <v>612.178654818736</v>
+        <v>5.78708242496924e-238</v>
       </c>
       <c r="D2" t="n">
-        <v>48.9826973382025</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9253.76284446347</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000155393357378843</v>
       </c>
     </row>
     <row r="3">
@@ -1205,16 +1396,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.765387684401619</v>
+        <v>-1.01777553914685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.46515356323287</v>
+        <v>0.36139796231587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343886847464175</v>
+        <v>0.251551398814038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.617536790384933</v>
+        <v>0.502261306155088</v>
       </c>
     </row>
     <row r="4">
@@ -1222,16 +1413,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.01471569350457</v>
+        <v>0.27433084698313</v>
       </c>
       <c r="C4" t="n">
-        <v>0.362505477845168</v>
+        <v>1.31565000907768</v>
       </c>
       <c r="D4" t="n">
-        <v>0.158942290283112</v>
+        <v>1.18776484790831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.78824958951168</v>
+        <v>1.47801127439013</v>
       </c>
     </row>
     <row r="5">
@@ -1239,16 +1430,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>1.40684529059286</v>
+        <v>1.46994247940078</v>
       </c>
       <c r="C5" t="n">
-        <v>4.08305421547682</v>
+        <v>4.34898497764611</v>
       </c>
       <c r="D5" t="n">
-        <v>2.02120585221708</v>
+        <v>1.88828328361083</v>
       </c>
       <c r="E5" t="n">
-        <v>8.59934855171789</v>
+        <v>10.5009480018669</v>
       </c>
     </row>
     <row r="6">
@@ -1256,16 +1447,16 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.585157261464341</v>
+        <v>-0.682480484288903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.55701825741713</v>
+        <v>0.505361894144775</v>
       </c>
       <c r="D6" t="n">
-        <v>0.409728075950036</v>
+        <v>0.31996866157685</v>
       </c>
       <c r="E6" t="n">
-        <v>0.748894791872537</v>
+        <v>0.7749952376624</v>
       </c>
     </row>
     <row r="7">
@@ -1273,16 +1464,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.620415292606652</v>
+        <v>1.63409007093733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.537721079629618</v>
+        <v>5.12479267699698</v>
       </c>
       <c r="D7" t="n">
-        <v>0.365460413907722</v>
+        <v>2.2910470097853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.775485288075266</v>
+        <v>12.4039900800151</v>
       </c>
     </row>
     <row r="8">
@@ -1290,16 +1481,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.319364274969383</v>
+        <v>-0.553455182655684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.726610814958845</v>
+        <v>0.574959783335717</v>
       </c>
       <c r="D8" t="n">
-        <v>0.559542218892321</v>
+        <v>0.392311935019225</v>
       </c>
       <c r="E8" t="n">
-        <v>0.938178749566118</v>
+        <v>0.831372092207565</v>
       </c>
     </row>
     <row r="9">
@@ -1307,16 +1498,16 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.289679217017777</v>
+        <v>-1.80328566155152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.748503636300183</v>
+        <v>0.164756663291652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.570056998400385</v>
+        <v>0.0679058462687844</v>
       </c>
       <c r="E9" t="n">
-        <v>0.965808994635527</v>
+        <v>0.369395569974365</v>
       </c>
     </row>
     <row r="10">
@@ -1324,16 +1515,16 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>1.90061844298786</v>
+        <v>-1.40365941766443</v>
       </c>
       <c r="C10" t="n">
-        <v>6.69003056566109</v>
+        <v>0.245696211775148</v>
       </c>
       <c r="D10" t="n">
-        <v>1.93812704778356</v>
+        <v>0.0640570646557105</v>
       </c>
       <c r="E10" t="n">
-        <v>23.3629349128633</v>
+        <v>0.92448661217833</v>
       </c>
     </row>
     <row r="11">
@@ -1341,16 +1532,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.964570778720574</v>
+        <v>1.24916785660559</v>
       </c>
       <c r="C11" t="n">
-        <v>2.62366128350736</v>
+        <v>3.48743969975646</v>
       </c>
       <c r="D11" t="n">
-        <v>1.27413640153684</v>
+        <v>1.48844677196486</v>
       </c>
       <c r="E11" t="n">
-        <v>5.70475224206812</v>
+        <v>8.52201573501251</v>
       </c>
     </row>
     <row r="12">
@@ -1358,16 +1549,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>2.57626024783277</v>
+        <v>3.29128702669609</v>
       </c>
       <c r="C12" t="n">
-        <v>13.1478763046027</v>
+        <v>26.8774333793299</v>
       </c>
       <c r="D12" t="n">
-        <v>1.42005048162258</v>
+        <v>3.169958799647</v>
       </c>
       <c r="E12" t="n">
-        <v>104.20509890541</v>
+        <v>224.938713294266</v>
       </c>
     </row>
     <row r="13">
@@ -1375,16 +1566,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>1.5972154920998</v>
+        <v>1.41527633532184</v>
       </c>
       <c r="C13" t="n">
-        <v>4.93925985029889</v>
+        <v>4.1176241537701</v>
       </c>
       <c r="D13" t="n">
-        <v>1.27740570074234</v>
+        <v>0.8274475171837</v>
       </c>
       <c r="E13" t="n">
-        <v>17.744006890516</v>
+        <v>19.1416798713772</v>
       </c>
     </row>
     <row r="14">
@@ -1392,16 +1583,16 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.938033067873375</v>
+        <v>0.907960673395496</v>
       </c>
       <c r="C14" t="n">
-        <v>0.391396929927893</v>
+        <v>2.47926135080452</v>
       </c>
       <c r="D14" t="n">
-        <v>0.128135881950874</v>
+        <v>1.15835687553339</v>
       </c>
       <c r="E14" t="n">
-        <v>1.02832633766337</v>
+        <v>5.48140704211218</v>
       </c>
     </row>
     <row r="15">
@@ -1409,16 +1600,16 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>2.29579777671642</v>
+        <v>-1.24740945447433</v>
       </c>
       <c r="C15" t="n">
-        <v>9.9323566552917</v>
+        <v>0.287247962766726</v>
       </c>
       <c r="D15" t="n">
-        <v>1.40355796717815</v>
+        <v>0.0967920446306121</v>
       </c>
       <c r="E15" t="n">
-        <v>57.4151532205985</v>
+        <v>0.771063137340631</v>
       </c>
     </row>
     <row r="16">
@@ -1426,16 +1617,16 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.886850454656636</v>
+        <v>1.40981921738564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.411951170583913</v>
+        <v>4.09521499347364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166203924205131</v>
+        <v>1.24190052654109</v>
       </c>
       <c r="E16" t="n">
-        <v>0.944517130602599</v>
+        <v>12.7027092033443</v>
       </c>
     </row>
     <row r="17">
@@ -1443,14 +1634,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>-16.4517406725943</v>
+        <v>-1.71889218829198</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000000716308010947561</v>
-      </c>
-      <c r="D17"/>
+        <v>0.179264629406423</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0468738746840681</v>
+      </c>
       <c r="E17" t="n">
-        <v>5290451722092153751240402648460648</v>
+        <v>0.575148207209761</v>
       </c>
     </row>
     <row r="18">
@@ -1458,16 +1651,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>1.51463062435004</v>
+        <v>1.18850266251923</v>
       </c>
       <c r="C18" t="n">
-        <v>4.54774099177957</v>
+        <v>3.28216302050064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.887750898612359</v>
+        <v>0.979215432301482</v>
       </c>
       <c r="E18" t="n">
-        <v>18.8608255146095</v>
+        <v>10.2595670250442</v>
       </c>
     </row>
     <row r="19">
@@ -1475,16 +1668,14 @@
         <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>0.905896979249713</v>
+        <v>-16.9329571572047</v>
       </c>
       <c r="C19" t="n">
-        <v>2.47415018941988</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.810549323559226</v>
-      </c>
+        <v>0.0000000442700634388498</v>
+      </c>
+      <c r="D19"/>
       <c r="E19" t="n">
-        <v>6.87108024528849</v>
+        <v>205388557935040207920264284</v>
       </c>
     </row>
     <row r="20">
@@ -1492,16 +1683,135 @@
         <v>32</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.201088128031413</v>
+        <v>-1.25864699749004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.817840353717484</v>
+        <v>0.284038070857488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.629618323471192</v>
+        <v>0.0999541464953046</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0445243561363</v>
+        <v>0.726744561864543</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.55845582556686</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.210460808610469</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0349761826101439</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.944203662277222</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.324569906821015</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.722838174564692</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.530226169195274</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.96345040053392</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.646580658309083</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.90900212579767</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.895518910277339</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.21810161548835</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.43291577365831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.087780510974462</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00433648133045478</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.07768331771687</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.542228921269498</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.71983597218567</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.791161894035833</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.72809202277458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.11617082946456</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.327531570701439</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0779816726337482</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.15575685590256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.31395685916211</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7305505440422</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.483146595361355</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.09363858135522</v>
       </c>
     </row>
   </sheetData>
